--- a/MMA ML Project/Skill Estimates/Skill Estimates Pre-2023-05-05/Featherweight/All_Intercepts.xlsx
+++ b/MMA ML Project/Skill Estimates/Skill Estimates Pre-2023-05-05/Featherweight/All_Intercepts.xlsx
@@ -1,21 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\Test MMA Project\MMA ML Project\Skill Estimates\Skill Estimates Pre-2023-05-05\Featherweight\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AC5F0D-60BD-44C8-9003-0963D1A5E6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3600" yWindow="834" windowWidth="10902" windowHeight="11526" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>Skill Estimate Name</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>Std. Error</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Standing Shot Probability</t>
+  </si>
+  <si>
+    <t>Takedown Attempt Probability</t>
+  </si>
+  <si>
+    <t>Submission Attempt Probability</t>
+  </si>
+  <si>
+    <t>Ground Shot Probability</t>
+  </si>
+  <si>
+    <t>Standing Head Accuracy</t>
+  </si>
+  <si>
+    <t>Standing Head Shot Probability</t>
+  </si>
+  <si>
+    <t>Ground Head Shot Probability</t>
+  </si>
+  <si>
+    <t>Standing Body Accuracy</t>
+  </si>
+  <si>
+    <t>Ground Head Accuracy</t>
+  </si>
+  <si>
+    <t>Ground Body Accuracy</t>
+  </si>
+  <si>
+    <t>Takedown Accuracy</t>
+  </si>
+  <si>
+    <t>Submission Accuracy</t>
+  </si>
+  <si>
+    <t>Knockout Probability</t>
+  </si>
+  <si>
+    <t>Ground Control</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +131,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +183,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +217,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +252,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,102 +428,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Skill Estimate Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Intercept</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Std. Error</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>z</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Standing Shot Probability</t>
-        </is>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-1.237202036577728</v>
+        <v>-1.2372020365777281</v>
       </c>
       <c r="C2">
-        <v>0.07602476581705381</v>
+        <v>7.6024765817053808E-2</v>
       </c>
       <c r="D2">
-        <v>-16.27367112915459</v>
+        <v>-16.273671129154589</v>
       </c>
       <c r="E2">
-        <v>1.517787398085569E-59</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Takedown Attempt Probability</t>
-        </is>
+        <v>1.5177873980855689E-59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-5.381301125007647</v>
+        <v>-5.3813011250076466</v>
       </c>
       <c r="C3">
-        <v>0.164065633515681</v>
+        <v>0.16406563351568099</v>
       </c>
       <c r="D3">
-        <v>-32.79968516071536</v>
+        <v>-32.799685160715363</v>
       </c>
       <c r="E3">
         <v>5.949284632193398E-236</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Submission Attempt Probability</t>
-        </is>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-6.299546022053836</v>
+        <v>-6.2995460220538364</v>
       </c>
       <c r="C4">
-        <v>0.2078019092850318</v>
+        <v>0.20780190928503181</v>
       </c>
       <c r="D4">
-        <v>-30.31514986425392</v>
+        <v>-30.315149864253922</v>
       </c>
       <c r="E4">
-        <v>7.239187800417726E-202</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ground Shot Probability</t>
-        </is>
+        <v>7.2391878004177264E-202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
         <v>-3.277907371538209</v>
@@ -454,172 +516,154 @@
         <v>0.1670184620423211</v>
       </c>
       <c r="D5">
-        <v>-19.62601817461123</v>
+        <v>-19.626018174611229</v>
       </c>
       <c r="E5">
-        <v>9.270119398957064E-86</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Standing Head Accuracy</t>
-        </is>
+        <v>9.2701193989570639E-86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.5354187206238054</v>
+        <v>-0.53541872062380536</v>
       </c>
       <c r="C6">
-        <v>0.1212678276630623</v>
+        <v>0.12126782766306229</v>
       </c>
       <c r="D6">
-        <v>-4.415175326727585</v>
+        <v>-4.4151753267275851</v>
       </c>
       <c r="E6">
-        <v>1.009281556416699E-05</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Standing Head Shot Probability</t>
-        </is>
+        <v>1.0092815564166989E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1.393832912735897</v>
       </c>
       <c r="C7">
-        <v>0.08098416036398101</v>
+        <v>8.0984160363981011E-2</v>
       </c>
       <c r="D7">
-        <v>17.21117940188988</v>
+        <v>17.211179401889879</v>
       </c>
       <c r="E7">
-        <v>2.189273286774201E-66</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Ground Head Shot Probability</t>
-        </is>
+        <v>2.1892732867742011E-66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1.455099436478078</v>
       </c>
       <c r="C8">
-        <v>0.1298327995245379</v>
+        <v>0.12983279952453791</v>
       </c>
       <c r="D8">
-        <v>11.20748718202806</v>
+        <v>11.207487182028061</v>
       </c>
       <c r="E8">
-        <v>3.746796074491852E-29</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Standing Body Accuracy</t>
-        </is>
+        <v>3.7467960744918518E-29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.8549824504718317</v>
+        <v>0.85498245047183175</v>
       </c>
       <c r="C9">
         <v>0.1500664931298136</v>
       </c>
       <c r="D9">
-        <v>5.697357435628468</v>
+        <v>5.6973574356284677</v>
       </c>
       <c r="E9">
-        <v>1.216786537583304E-08</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Ground Head Accuracy</t>
-        </is>
+        <v>1.216786537583304E-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.3532948011816703</v>
+        <v>0.35329480118167028</v>
       </c>
       <c r="C10">
-        <v>0.1801594686446449</v>
+        <v>0.18015946864464491</v>
       </c>
       <c r="D10">
         <v>1.961011562919992</v>
       </c>
       <c r="E10">
-        <v>0.04987767406305511</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Ground Body Accuracy</t>
-        </is>
+        <v>4.9877674063055107E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>14</v>
       </c>
       <c r="B11">
         <v>2.201880619686051</v>
       </c>
       <c r="C11">
-        <v>0.2636149693220252</v>
+        <v>0.26361496932202522</v>
       </c>
       <c r="D11">
-        <v>8.352638794939946</v>
+        <v>8.3526387949399457</v>
       </c>
       <c r="E11">
-        <v>6.675455142623773E-17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Takedown Accuracy</t>
-        </is>
+        <v>6.6754551426237733E-17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>15</v>
       </c>
       <c r="B12">
         <v>-0.5735751074740808</v>
       </c>
       <c r="C12">
-        <v>0.1882474332006759</v>
+        <v>0.18824743320067591</v>
       </c>
       <c r="D12">
-        <v>-3.04692126592046</v>
+        <v>-3.0469212659204601</v>
       </c>
       <c r="E12">
-        <v>0.002311982598324384</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Submission Accuracy</t>
-        </is>
+        <v>2.3119825983243841E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-1.959176220893411</v>
+        <v>-1.9591762208934109</v>
       </c>
       <c r="C13">
-        <v>0.3190063463714301</v>
+        <v>0.31900634637143011</v>
       </c>
       <c r="D13">
         <v>-6.14149606482209</v>
       </c>
       <c r="E13">
-        <v>8.174785132705103E-10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Knockout Probability</t>
-        </is>
+        <v>8.1747851327051026E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-4.965079628386671</v>
+        <v>-4.9650796283866709</v>
       </c>
       <c r="C14">
         <v>0.2188929613646538</v>
@@ -629,6 +673,23 @@
       </c>
       <c r="E14">
         <v>6.641393390679626E-114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>4.49117600767201</v>
+      </c>
+      <c r="C15">
+        <v>0.20188029669883051</v>
+      </c>
+      <c r="D15">
+        <v>22.246727794203931</v>
+      </c>
+      <c r="E15">
+        <v>1.121911785521787E-51</v>
       </c>
     </row>
   </sheetData>
